--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -40048,7 +40048,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>65.64884000000001</v>
+        <v>78.47011999999999</v>
       </c>
     </row>
     <row r="4" ht="14.75" customHeight="1" s="49">
@@ -40090,13 +40090,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.02962</v>
+        <v>0.02958</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.8491</v>
+        <v>3.84399</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>14.7099</v>
+        <v>13.60013</v>
       </c>
     </row>
     <row r="7" ht="14.75" customHeight="1" s="49">
@@ -40106,13 +40106,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.10875</v>
+        <v>0.158</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.1311</v>
+        <v>20.53113</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>302.20349</v>
+        <v>585.38052</v>
       </c>
     </row>
     <row r="8" ht="14.75" customHeight="1" s="49">
@@ -40176,7 +40176,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0.05375</v>
+        <v>0.05922</v>
       </c>
     </row>
     <row r="12" ht="14.75" customHeight="1" s="49">

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39985,7 +39985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40048,7 +40048,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>78.47011999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>77.15877999999999</v>
       </c>
     </row>
     <row r="4" ht="14.75" customHeight="1" s="49">
@@ -40093,9 +40096,12 @@
         <v>0.02958</v>
       </c>
       <c r="C6" s="4" t="n">
+        <v>0.02958</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>3.84399</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" t="n">
         <v>13.60013</v>
       </c>
     </row>
@@ -40109,10 +40115,13 @@
         <v>0.158</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>20.53113</v>
+        <v>0.18882</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>585.38052</v>
+        <v>24.53548</v>
+      </c>
+      <c r="E7" t="n">
+        <v>699.55193</v>
       </c>
     </row>
     <row r="8" ht="14.75" customHeight="1" s="49">
@@ -40177,6 +40186,9 @@
       </c>
       <c r="D11" s="4" t="n">
         <v>0.05922</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="12" ht="14.75" customHeight="1" s="49">
